--- a/biology/Botanique/Les_Rebelles_de_la_forêt_4/Les_Rebelles_de_la_forêt_4.xlsx
+++ b/biology/Botanique/Les_Rebelles_de_la_forêt_4/Les_Rebelles_de_la_forêt_4.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_4</t>
+          <t>Les_Rebelles_de_la_forêt_4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Rebelles de la forêt 4 (Open Season: Scared Silly) est un film d'animation américain en images de synthèse réalisé par David Feiss, sorti au cinéma dans certains pays en 2015 et directement en vidéo en 2016.
 C'est le quatrième et dernier opus de la série après Les Rebelles de la forêt (2006), Les Rebelles de la forêt 2 (2009) et Les Rebelles de la forêt 3 (2010). Il s'agit cependant d'un standalone car il fait référence à des évènements du premier film mais ignore ceux des deuxième et troisième.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_4</t>
+          <t>Les_Rebelles_de_la_forêt_4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_4</t>
+          <t>Les_Rebelles_de_la_forêt_4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original : Open Season: Scared Silly
@@ -554,7 +570,7 @@
 Production exécutive : Barbara Zelinski
 Société de production : Sony Pictures Animation
 Société de distribution : Sony Pictures Home Entertainment
-Budget : 5 500 000 $[1]
+Budget : 5 500 000 $
 Pays d'origine :  États-Unis
 Langue originale : anglais
 Format : couleur - 1,78:1 - son Dolby Digital
@@ -573,7 +589,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_4</t>
+          <t>Les_Rebelles_de_la_forêt_4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,6 +608,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,7 +617,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Les_Rebelles_de_la_for%C3%AAt_4</t>
+          <t>Les_Rebelles_de_la_forêt_4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -617,9 +635,11 @@
           <t>Nominations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2017, Les Rebelles de la forêt 4 est nommé dans deux catégories des Annie Awards : meilleure réalisation pour une production animée et meilleur doublage pour une production animée pour William Townsend dans le rôle de M. Weenie[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2017, Les Rebelles de la forêt 4 est nommé dans deux catégories des Annie Awards : meilleure réalisation pour une production animée et meilleur doublage pour une production animée pour William Townsend dans le rôle de M. Weenie.
 </t>
         </is>
       </c>
